--- a/URS/DbLayouts/L5-管理性作業/NegMain.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/NegMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DF8745-5445-459A-90AF-F20C49AFA0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C3D4C0-88CA-42D1-8CD5-39C4F398AB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="158">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -255,26 +255,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>HaveCustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoCustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseKindCodeEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CaseKindCode=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CustLoanKindEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CustLoanKind=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -287,10 +271,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>StatusEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo,CaseSeq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -303,14 +283,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CustNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNoFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo=</t>
   </si>
   <si>
@@ -323,10 +295,6 @@
   </si>
   <si>
     <t>CaseSeq Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatusFirst</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -363,14 +331,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>L5705NoCustId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>L5705HadCustId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Status^i , AND IsMainFin= , AND NextPayDate&gt;= , AND NextPayDate&lt;= , AND CustNo=</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -518,14 +478,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>累償還本金</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>累償還利息</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>這次已繳到哪一天了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -566,19 +518,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CustNoAndApplDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">CustNo= , AND ApplDate= , AND MainFinCode= </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo Desc , CaseSeq Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNoAndApplDateFirst</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -642,6 +586,74 @@
   <si>
     <t>累溢繳金額</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>繳款時更新,結清時等於累繳金額減退還金額,其他等於期款乘以(首次應繳日至會計日之月差)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>haveCustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>noCustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseKindCodeEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custLoanKindEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>l5705HadCustId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>l5705NoCustId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoAndApplDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoAndApplDateFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>償還本金</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>償還利息</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後一次的還本本金,非累計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後一次的還本利息,非累計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1247,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1296,7 +1308,7 @@
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1380,7 +1392,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>37</v>
@@ -1420,7 +1432,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>53</v>
@@ -1430,7 +1442,7 @@
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="22" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="97.2">
@@ -1438,10 +1450,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>53</v>
@@ -1450,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="64.8">
@@ -1471,7 +1483,7 @@
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="22" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.4">
@@ -1479,10 +1491,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>37</v>
@@ -1492,7 +1504,7 @@
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="22" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1500,10 +1512,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>37</v>
@@ -1519,10 +1531,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>37</v>
@@ -1541,10 +1553,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E17" s="25">
         <v>8</v>
@@ -1557,7 +1569,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>33</v>
@@ -1578,7 +1590,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>34</v>
@@ -1618,13 +1630,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E21" s="25">
         <v>8</v>
@@ -1640,10 +1652,10 @@
         <v>25</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E22" s="25">
         <v>8</v>
@@ -1656,7 +1668,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>36</v>
@@ -1669,7 +1681,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="22" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1680,7 +1692,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>37</v>
@@ -1692,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1703,7 +1715,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>53</v>
@@ -1719,10 +1731,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>37</v>
@@ -1734,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1745,7 +1757,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>37</v>
@@ -1763,10 +1775,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>37</v>
@@ -1779,7 +1791,7 @@
       </c>
       <c r="G28" s="21"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="48.6">
       <c r="A29" s="19">
         <v>21</v>
       </c>
@@ -1787,7 +1799,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>37</v>
@@ -1798,7 +1810,9 @@
       <c r="F29" s="25">
         <v>2</v>
       </c>
-      <c r="G29" s="21"/>
+      <c r="G29" s="22" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="19">
@@ -1808,7 +1822,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>37</v>
@@ -1826,7 +1840,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>39</v>
@@ -1845,7 +1859,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>40</v>
@@ -1858,7 +1872,7 @@
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="22" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1872,7 +1886,7 @@
         <v>41</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E33" s="25">
         <v>8</v>
@@ -1884,19 +1898,19 @@
         <v>26</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E34" s="25">
         <v>8</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1904,19 +1918,19 @@
         <v>27</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E35" s="25">
         <v>8</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1924,16 +1938,19 @@
         <v>28</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E36" s="25">
         <v>14</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1941,16 +1958,19 @@
         <v>29</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="25">
         <v>14</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1958,13 +1978,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E38" s="25">
         <v>8</v>
@@ -1975,19 +1995,19 @@
         <v>31</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E39" s="25">
         <v>3</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1995,19 +2015,19 @@
         <v>32</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E40" s="25">
         <v>8</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2015,19 +2035,19 @@
         <v>33</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E41" s="25">
         <v>6</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2035,19 +2055,19 @@
         <v>34</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E42" s="25">
         <v>8</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2055,19 +2075,19 @@
         <v>35</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E43" s="25">
         <v>8</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2075,19 +2095,19 @@
         <v>36</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E44" s="25">
         <v>6</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2095,19 +2115,19 @@
         <v>37</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E45" s="25">
         <v>8</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2220,134 +2240,134 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
